--- a/devFood.xlsx
+++ b/devFood.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trung/blog/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C726108-AAC8-3A4F-BD0A-6D4E23FC7129}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F2B6B31-70D5-A44A-9C28-604A6D7E0D74}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1260" yWindow="500" windowWidth="27540" windowHeight="17500" xr2:uid="{A3D4CE5C-7380-4F9F-98BB-3F321C52265A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{A3D4CE5C-7380-4F9F-98BB-3F321C52265A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="778" uniqueCount="245">
   <si>
     <t>Cộng đồng lập trình PHP, NodeJS, iOS, Android</t>
   </si>
@@ -1214,8 +1214,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECD48223-D609-4989-98E2-71E7CE48F3FF}">
   <dimension ref="A1:S114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="C56" sqref="C56"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2724,7 +2724,9 @@
       <c r="B57" t="s">
         <v>154</v>
       </c>
-      <c r="C57" s="6"/>
+      <c r="C57" s="6" t="s">
+        <v>240</v>
+      </c>
       <c r="D57">
         <v>6.8</v>
       </c>
@@ -2751,7 +2753,9 @@
       <c r="B58" t="s">
         <v>208</v>
       </c>
-      <c r="C58" s="6"/>
+      <c r="C58" s="6" t="s">
+        <v>240</v>
+      </c>
       <c r="D58">
         <v>6.7</v>
       </c>
@@ -2772,7 +2776,9 @@
       <c r="B59" t="s">
         <v>224</v>
       </c>
-      <c r="C59" s="6"/>
+      <c r="C59" s="6" t="s">
+        <v>240</v>
+      </c>
       <c r="D59">
         <v>6.6</v>
       </c>
@@ -2790,7 +2796,9 @@
       <c r="B60" t="s">
         <v>184</v>
       </c>
-      <c r="C60" s="6"/>
+      <c r="C60" s="6" t="s">
+        <v>240</v>
+      </c>
       <c r="D60">
         <v>6.3</v>
       </c>
